--- a/Colab Ativos jan-mar.xlsx
+++ b/Colab Ativos jan-mar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecristina.santana\Desktop\Emplavi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THOMAZ MASAYUKI\Desktop\EMPLAVI\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26408C0-B57B-473F-AE8B-8ECBE9D92580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6379D-00CA-41B4-9FD2-45952F3A2A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A465AF5D-B2F2-4B3E-BAA2-E207EE194BC0}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{A465AF5D-B2F2-4B3E-BAA2-E207EE194BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Empresa</t>
   </si>
@@ -49,6 +60,45 @@
   </si>
   <si>
     <t>Empreendimento 3</t>
+  </si>
+  <si>
+    <t>Empreendimento 4</t>
+  </si>
+  <si>
+    <t>Empreendimento 5</t>
+  </si>
+  <si>
+    <t>Empreendimento 6</t>
+  </si>
+  <si>
+    <t>Empreendimento 7</t>
+  </si>
+  <si>
+    <t>Empreendimento 8</t>
+  </si>
+  <si>
+    <t>Empreendimento 9</t>
+  </si>
+  <si>
+    <t>Empreendimento 10</t>
+  </si>
+  <si>
+    <t>Empreendimento 11</t>
+  </si>
+  <si>
+    <t>Empreendimento 12</t>
+  </si>
+  <si>
+    <t>Empreendimento 13</t>
+  </si>
+  <si>
+    <t>Empreendimento 14</t>
+  </si>
+  <si>
+    <t>Empreendimento 15</t>
+  </si>
+  <si>
+    <t>Empreendimento 16</t>
   </si>
 </sst>
 </file>
@@ -58,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +138,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,18 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,52 +488,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82EE5C-EB7A-48B8-835F-33F92E516AE2}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C2">
         <v>321</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>345</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>575583.9</v>
       </c>
     </row>
@@ -488,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="C3">
         <v>324</v>
@@ -518,30 +572,267 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C5">
+        <f ca="1">RANDBETWEEN(320,340)</f>
+        <v>332</v>
+      </c>
+      <c r="D5">
+        <f ca="1">RANDBETWEEN(340,360)</f>
+        <v>346</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1">RANDBETWEEN(550980,690980)</f>
+        <v>624717</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C17" ca="1" si="0">RANDBETWEEN(320,340)</f>
+        <v>327</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D15" ca="1" si="1">RANDBETWEEN(340,360)</f>
+        <v>359</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E17" ca="1" si="2">RANDBETWEEN(550980,710980)</f>
+        <v>618549</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>555127</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>666127</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>597662</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>681493</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(320,340)</f>
+        <v>328</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>579556</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>689445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>586158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>703961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>592672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="D16">
+        <f ca="1">RANDBETWEEN(340,360)</f>
+        <v>343</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>674852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="D17">
+        <f ca="1">RANDBETWEEN(340,360)</f>
+        <v>357</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>600512</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
